--- a/com.practice.selenium/TestData/testData.xlsx
+++ b/com.practice.selenium/TestData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="15160" windowHeight="2530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2740" windowWidth="15160" windowHeight="2530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="contact" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -395,7 +396,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
